--- a/input/HU/policy parameters.xlsx
+++ b/input/HU/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/HU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C18DD3-A6CA-4818-8AD4-BC2C180A1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A950159-D941-4040-902E-19C4DDE16DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="2685" windowWidth="21600" windowHeight="12810" activeTab="3" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="19440" yWindow="660" windowWidth="18800" windowHeight="19420" firstSheet="9" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -20,9 +20,13 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
-    <sheet name="raw data" sheetId="3" r:id="rId10"/>
+    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
+    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
+    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
+    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -546,9 +550,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -556,7 +560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -564,7 +568,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -572,7 +576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -580,7 +584,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -588,7 +592,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -596,7 +600,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -604,7 +608,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -612,7 +616,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -620,7 +624,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -628,7 +632,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -636,7 +640,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -644,7 +648,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -652,7 +656,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -660,7 +664,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -674,6 +678,642 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942C6FE9-F38C-3E4B-B575-83755C3CAB61}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27185799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.24763199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.22253700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.22546099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24279899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.24468000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27390300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.313029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.28016600000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.27554800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.33879599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.32312099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1E7AC8-9A5E-FA44-A106-59B322051158}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.80887100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.77573499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.75251699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.75262899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.75889499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.79421600000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.78493500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.83127399999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.88571599999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.84921800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.89088400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.78691500000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FA5EDA-F24B-EA48-83CF-17349B0F2237}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27356799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.273926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.23652200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.25017800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24973799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.26674399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27819100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.29665599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.30199500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.32094800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.34444900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.37901499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.74668140000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.74351520000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.74422900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.73707429999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.74269050000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.74164249999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.73936999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.7404522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.73668559333333306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.73539384848484901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.73410210363636397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.73281035878787903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.73151861393939399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.73022686909090895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.72893512424242402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.72764337939393897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.72635163454545504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.72505988969696999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.72376814484848495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
@@ -681,9 +1321,9 @@
       <selection activeCell="Y4" sqref="Y4:Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -694,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -710,7 +1350,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -766,7 +1406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -844,7 +1484,7 @@
         <v>0.6613654059472992</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -923,7 +1563,7 @@
         <v>0.65666662435166534</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1002,7 +1642,7 @@
         <v>0.65162882226991414</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1081,7 +1721,7 @@
         <v>0.64942413470967808</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1160,7 +1800,7 @@
         <v>0.64547705146902756</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1239,7 +1879,7 @@
         <v>0.64460168570888343</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1318,7 +1958,7 @@
         <v>0.64477324955863657</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1397,7 +2037,7 @@
         <v>0.64570195231543648</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -1476,7 +2116,7 @@
         <v>0.64737782355652385</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -1537,7 +2177,7 @@
         <v>0.64448143654604106</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -1598,7 +2238,7 @@
         <v>0.64389807700679014</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2026</v>
       </c>
@@ -1659,7 +2299,7 @@
         <v>0.63601678163112885</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2027</v>
       </c>
@@ -1720,7 +2360,7 @@
         <v>0.63885715724636716</v>
       </c>
     </row>
-    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W17">
         <f t="shared" si="11"/>
         <v>2007</v>
@@ -1733,7 +2373,7 @@
         <v>0.63970331929393809</v>
       </c>
     </row>
-    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W18">
         <f t="shared" si="11"/>
         <v>2008</v>
@@ -1746,7 +2386,7 @@
         <v>0.63745385907812036</v>
       </c>
     </row>
-    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W19">
         <f t="shared" si="11"/>
         <v>2009</v>
@@ -1759,7 +2399,7 @@
         <v>0.64638142900294271</v>
       </c>
     </row>
-    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W20">
         <f t="shared" si="11"/>
         <v>2010</v>
@@ -1772,7 +2412,7 @@
         <v>0.64291910814000863</v>
       </c>
     </row>
-    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W21">
         <f t="shared" si="11"/>
         <v>2011</v>
@@ -1785,7 +2425,7 @@
         <v>0.64183543445918845</v>
       </c>
     </row>
-    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W22">
         <f t="shared" si="11"/>
         <v>2012</v>
@@ -1798,7 +2438,7 @@
         <v>0.64457311813040019</v>
       </c>
     </row>
-    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W23">
         <f t="shared" si="11"/>
         <v>2013</v>
@@ -1811,7 +2451,7 @@
         <v>0.64501821298769013</v>
       </c>
     </row>
-    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W24">
         <f t="shared" si="11"/>
         <v>2014</v>
@@ -1824,7 +2464,7 @@
         <v>0.64303300577959377</v>
       </c>
     </row>
-    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W25">
         <f t="shared" si="11"/>
         <v>2015</v>
@@ -1837,7 +2477,7 @@
         <v>0.64350137796521267</v>
       </c>
     </row>
-    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W26">
         <f t="shared" si="11"/>
         <v>2016</v>
@@ -1850,7 +2490,7 @@
         <v>0.64443090532156433</v>
       </c>
     </row>
-    <row r="27" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W27">
         <f t="shared" si="11"/>
         <v>2017</v>
@@ -1863,7 +2503,7 @@
         <v>0.64369538754708922</v>
       </c>
     </row>
-    <row r="28" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W28">
         <f t="shared" si="11"/>
         <v>2018</v>
@@ -1876,7 +2516,7 @@
         <v>0.64389678969687036</v>
       </c>
     </row>
-    <row r="29" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W29">
         <f t="shared" si="11"/>
         <v>2019</v>
@@ -1889,7 +2529,7 @@
         <v>0.63975244582712099</v>
       </c>
     </row>
-    <row r="30" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W30">
         <f t="shared" si="11"/>
         <v>2020</v>
@@ -1902,7 +2542,7 @@
         <v>0.64948824720523413</v>
       </c>
     </row>
-    <row r="31" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W31">
         <f t="shared" si="11"/>
         <v>2021</v>
@@ -1915,7 +2555,7 @@
         <v>0.64443733677754689</v>
       </c>
     </row>
-    <row r="32" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W32">
         <v>2022</v>
       </c>
@@ -1924,7 +2564,7 @@
         <v>0.64425404141077236</v>
       </c>
     </row>
-    <row r="33" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W33">
         <v>2023</v>
       </c>
@@ -1946,13 +2586,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +2600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +2608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +2624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1995,17 +2635,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -2024,9 +2664,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2084,7 +2724,7 @@
         <v>23250</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -2113,7 +2753,7 @@
         <v>23088.381330685203</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2143,7 +2783,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2173,7 +2813,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -2203,7 +2843,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2233,7 +2873,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2263,7 +2903,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2293,7 +2933,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2323,7 +2963,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -2353,7 +2993,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -2383,7 +3023,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -2413,7 +3053,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -2443,10 +3083,10 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K16" s="1"/>
     </row>
   </sheetData>
@@ -2458,11 +3098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CF42B-7BCB-429C-A72F-92D7D9CDCB1D}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +3110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2478,7 +3118,7 @@
         <v>0.24679999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2486,7 +3126,7 @@
         <v>0.24679999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2494,7 +3134,7 @@
         <v>0.24740000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2502,7 +3142,7 @@
         <v>0.25409999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2510,7 +3150,7 @@
         <v>0.25359999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2518,7 +3158,7 @@
         <v>0.2505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2526,7 +3166,7 @@
         <v>0.24610000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2534,7 +3174,7 @@
         <v>0.2417</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2542,7 +3182,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2550,7 +3190,7 @@
         <v>0.24490000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2558,7 +3198,7 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2566,7 +3206,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2574,7 +3214,7 @@
         <v>0.2417</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2582,7 +3222,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2590,7 +3230,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2598,7 +3238,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2606,7 +3246,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2614,7 +3254,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2622,7 +3262,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2630,7 +3270,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -2638,7 +3278,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -2646,7 +3286,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -2654,7 +3294,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -2662,7 +3302,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -2670,7 +3310,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -2678,7 +3318,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -2686,7 +3326,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -2694,7 +3334,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -2702,7 +3342,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -2710,7 +3350,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -2731,9 +3371,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2741,7 +3381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2749,7 +3389,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2757,7 +3397,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2765,7 +3405,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2773,7 +3413,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2781,7 +3421,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2789,7 +3429,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2797,7 +3437,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2805,7 +3445,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2813,7 +3453,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2821,7 +3461,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2829,7 +3469,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2837,7 +3477,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2845,7 +3485,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2853,7 +3493,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2861,7 +3501,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2869,7 +3509,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2877,7 +3517,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2885,7 +3525,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2893,7 +3533,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2901,7 +3541,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -2909,7 +3549,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -2917,7 +3557,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -2925,7 +3565,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -2933,7 +3573,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -2941,7 +3581,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -2962,9 +3602,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2972,7 +3612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2980,7 +3620,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2988,7 +3628,7 @@
         <v>0.60860000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2996,7 +3636,7 @@
         <v>0.60570000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3004,7 +3644,7 @@
         <v>0.61019999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3012,7 +3652,7 @@
         <v>0.61339999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3020,7 +3660,7 @@
         <v>0.61570000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3028,7 +3668,7 @@
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3036,7 +3676,7 @@
         <v>0.62190000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3044,7 +3684,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3052,7 +3692,7 @@
         <v>0.62809999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3060,7 +3700,7 @@
         <v>0.64049999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3068,7 +3708,7 @@
         <v>0.62729999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3076,7 +3716,7 @@
         <v>0.62050000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3084,7 +3724,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3092,7 +3732,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3100,7 +3740,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3108,7 +3748,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3116,7 +3756,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3124,7 +3764,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3132,7 +3772,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3140,7 +3780,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3148,7 +3788,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3156,7 +3796,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3164,7 +3804,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3172,7 +3812,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3194,9 +3834,9 @@
       <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3204,7 +3844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3212,7 +3852,7 @@
         <v>0.63684130000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3220,7 +3860,7 @@
         <v>0.63684130000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3228,7 +3868,7 @@
         <v>0.63086129999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3236,7 +3876,7 @@
         <v>0.62820810000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3244,7 +3884,7 @@
         <v>0.63444250000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3252,7 +3892,7 @@
         <v>0.64983950000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3260,7 +3900,7 @@
         <v>0.66639119999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3268,7 +3908,7 @@
         <v>0.67221770000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3276,7 +3916,7 @@
         <v>0.67153039999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3284,7 +3924,7 @@
         <v>0.67241660000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3292,7 +3932,7 @@
         <v>0.69137210000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3300,7 +3940,7 @@
         <v>0.703434</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3308,7 +3948,7 @@
         <v>0.70015435151515204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3316,7 +3956,7 @@
         <v>0.70666020046620004</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3324,7 +3964,7 @@
         <v>0.71316604941724904</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3332,7 +3972,7 @@
         <v>0.71967189836829804</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3340,7 +3980,7 @@
         <v>0.72617774731934703</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3348,7 +3988,7 @@
         <v>0.73268359627039603</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3356,7 +3996,7 @@
         <v>0.73918944522144503</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3364,7 +4004,7 @@
         <v>0.74569529417249403</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3372,7 +4012,7 @@
         <v>0.75220114312354303</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3380,7 +4020,7 @@
         <v>0.75870699207459202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3388,7 +4028,7 @@
         <v>0.76521284102564102</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3396,7 +4036,7 @@
         <v>0.77171868997669002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3404,7 +4044,7 @@
         <v>0.77822453892773902</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3418,6 +4058,141 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF0735-C652-BA45-92D8-73043757BC4C}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.30974299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.25676199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.26411699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.27359499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.27618300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.30072199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.32430500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.351267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.26828200000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.31243900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.36913600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -3425,9 +4200,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3435,7 +4210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3443,7 +4218,7 @@
         <v>0.39854529999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3451,7 +4226,7 @@
         <v>0.39854529999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3459,7 +4234,7 @@
         <v>0.4029663</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3467,7 +4242,7 @@
         <v>0.39655180000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3475,7 +4250,7 @@
         <v>0.4070319</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3483,7 +4258,7 @@
         <v>0.40790100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3491,7 +4266,7 @@
         <v>0.41726039999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3499,7 +4274,7 @@
         <v>0.42810779999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3507,7 +4282,7 @@
         <v>0.42215740000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3515,7 +4290,7 @@
         <v>0.41901169999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3523,7 +4298,7 @@
         <v>0.42423159999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3531,7 +4306,7 @@
         <v>0.41884729999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3539,7 +4314,7 @@
         <v>0.42949969999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3547,7 +4322,7 @@
         <v>0.43197885000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3555,7 +4330,7 @@
         <v>0.4346719</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3563,7 +4338,7 @@
         <v>0.43736494999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3571,7 +4346,7 @@
         <v>0.440058</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3579,7 +4354,7 @@
         <v>0.44275104999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3587,7 +4362,7 @@
         <v>0.44544410000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3595,7 +4370,7 @@
         <v>0.44813714999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3603,7 +4378,7 @@
         <v>0.45083020000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3611,7 +4386,7 @@
         <v>0.45352324999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3619,7 +4394,7 @@
         <v>0.45621630000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3627,7 +4402,7 @@
         <v>0.45890934999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3635,243 +4410,12 @@
         <v>0.46160240000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
         <v>0.46429545</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.7511234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.7511234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.74668140000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.74351520000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.74422900000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.73707429999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.74269050000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.74164249999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.73936999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.7404522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.73668559333333306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.73539384848484901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.73410210363636397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.73281035878787903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.73151861393939399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.73022686909090895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.72893512424242402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.72764337939393897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.72635163454545504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.72505988969696999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.72376814484848495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.72247640000000002</v>
       </c>
     </row>
   </sheetData>

--- a/input/HU/policy parameters.xlsx
+++ b/input/HU/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/HU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/input_HU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A950159-D941-4040-902E-19C4DDE16DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9A950159-D941-4040-902E-19C4DDE16DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A9D76C3-0B2B-544A-850E-6438C51A4870}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="660" windowWidth="18800" windowHeight="19420" firstSheet="9" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="4300" yWindow="6220" windowWidth="18800" windowHeight="19420" firstSheet="9" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
-    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
-    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
-    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
+    <sheet name="employment_acfemales" sheetId="15" r:id="rId10"/>
+    <sheet name="employment_acmales" sheetId="16" r:id="rId11"/>
+    <sheet name="employment_femalewdep" sheetId="17" r:id="rId12"/>
+    <sheet name="employment_malewdep" sheetId="18" r:id="rId13"/>
     <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -179,6 +179,9 @@
   <si>
     <t>Share</t>
   </si>
+  <si>
+    <t>empl_share</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,16 +233,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{74B5A70A-E8E9-5245-9BD8-EBCE09DA05AF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,133 +689,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942C6FE9-F38C-3E4B-B575-83755C3CAB61}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA9E30E-B5A5-F34A-8D48-38F6DF9F06FA}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.29414899999999999</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.27855214476585388</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.29414899999999999</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.27265346050262451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27185799999999999</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.32306292653083801</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.24763199999999999</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.34229308366775513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.22253700000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.31299895048141479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.22546099999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.30871030688285828</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24279899999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.33314895629882812</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.24468000000000001</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.37445876002311707</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27390300000000001</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.34524336457252502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.313029</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.34110260009765625</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.28016600000000003</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.33990216255187988</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.27554800000000002</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.34959125518798828</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.33879599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.32312099999999999</v>
+      <c r="B14" s="3">
+        <v>0.33260500431060791</v>
       </c>
     </row>
   </sheetData>
@@ -813,133 +817,126 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1E7AC8-9A5E-FA44-A106-59B322051158}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888E7CD-E0F7-5F48-B43E-9E518E8E1B94}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.84780199999999994</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.37350285053253174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.84780199999999994</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.38024094700813293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.80887100000000001</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.39189162850379944</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.77573499999999995</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.41562217473983765</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.75251699999999999</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.43646812438964844</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.75262899999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.43620628118515015</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.75889499999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.44375497102737427</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.79421600000000003</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.46065014600753784</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.78493500000000005</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.47085469961166382</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.83127399999999996</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.51030397415161133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.88571599999999995</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.40952280163764954</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.84921800000000003</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.46216663718223572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.89088400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.78691500000000003</v>
+      <c r="B14" s="3">
+        <v>0.47789052128791809</v>
       </c>
     </row>
   </sheetData>
@@ -948,133 +945,126 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FA5EDA-F24B-EA48-83CF-17349B0F2237}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1812EAB-EC68-CE4C-B0E7-381426214BD0}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.26522800000000002</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.76690536737442017</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.26522800000000002</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.73749220371246338</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27356799999999998</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.75653737783432007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.273926</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.78643345832824707</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.23652200000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.76585447788238525</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.25017800000000001</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.7889404296875</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24973799999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.83350896835327148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.26674399999999998</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.78125715255737305</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27819100000000002</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.81498771905899048</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.29665599999999998</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.84706038236618042</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.30199500000000001</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.78142070770263672</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.32094800000000001</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.7693401575088501</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.34444900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.37901499999999999</v>
+      <c r="B14" s="3">
+        <v>0.84045535326004028</v>
       </c>
     </row>
   </sheetData>
@@ -1083,229 +1073,128 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F08300-67BF-284A-82EE-D89CB9EA8AE7}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.7511234</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.82753771543502808</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.7511234</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.83372926712036133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.74668140000000005</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.8435288667678833</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.74351520000000004</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.80112349987030029</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.74422900000000003</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80091458559036255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.73707429999999996</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.8086094856262207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.74269050000000003</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.85009080171585083</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.74164249999999998</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.83720260858535767</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.73936999999999997</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.91961032152175903</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.7404522</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95134902000427246</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.73668559333333306</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.87073808908462524</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.73539384848484901</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.89141899347305298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.73410210363636397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.73281035878787903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.73151861393939399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.73022686909090895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.72893512424242402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.72764337939393897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.72635163454545504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.72505988969696999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.72376814484848495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.72247640000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.72247640000000002</v>
+      <c r="B14" s="3">
+        <v>0.96480387449264526</v>
       </c>
     </row>
   </sheetData>
@@ -4058,141 +3947,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF0735-C652-BA45-92D8-73043757BC4C}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.30974299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.25676199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.26411699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.27359499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.27618300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.30072199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.32430500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.351267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.26828200000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.31243900000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.36913600000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -4421,4 +4175,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.7511234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.74668140000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.74351520000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.74422900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.73707429999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.74269050000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.74164249999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.73936999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.7404522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.73668559333333306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.73539384848484901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.73410210363636397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.73281035878787903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.73151861393939399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.73022686909090895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.72893512424242402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.72764337939393897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.72635163454545504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.72505988969696999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.72376814484848495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.72247640000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>